--- a/интерфейс_dash/User_list.xlsx
+++ b/интерфейс_dash/User_list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>user_login</t>
   </si>
@@ -48,10 +48,214 @@
     <t>User2_pass</t>
   </si>
   <si>
-    <t>C:\Users\Maria Smirnova\Desktop\Проекты\межнар\интерфейс_dash\\de53eec852bf4c698ee0e9eb81af2beb.mp4</t>
-  </si>
-  <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>extraversion</t>
+  </si>
+  <si>
+    <t>neuroticism</t>
+  </si>
+  <si>
+    <t>agreeableness</t>
+  </si>
+  <si>
+    <t>conscientiousness</t>
+  </si>
+  <si>
+    <t>interview</t>
+  </si>
+  <si>
+    <t>openness</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>amount of words_cleared</t>
+  </si>
+  <si>
+    <t>amount of words_all</t>
+  </si>
+  <si>
+    <t>unique_words</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>mfcc_mean</t>
+  </si>
+  <si>
+    <t>mfcc_std</t>
+  </si>
+  <si>
+    <t>cent_mean</t>
+  </si>
+  <si>
+    <t>cent_std</t>
+  </si>
+  <si>
+    <t>roloff_mean</t>
+  </si>
+  <si>
+    <t>roloff_std</t>
+  </si>
+  <si>
+    <t>rms_mean</t>
+  </si>
+  <si>
+    <t>rms_std</t>
+  </si>
+  <si>
+    <t>eye_coef</t>
+  </si>
+  <si>
+    <t>smiling</t>
+  </si>
+  <si>
+    <t>frowning</t>
+  </si>
+  <si>
+    <t>surprised</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>angry</t>
+  </si>
+  <si>
+    <t>fearful</t>
+  </si>
+  <si>
+    <t>disgusted</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>open_palm</t>
+  </si>
+  <si>
+    <t>fist</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>pointing</t>
+  </si>
+  <si>
+    <t>thumbs_up</t>
+  </si>
+  <si>
+    <t>thumbs_down</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>peace_sign</t>
+  </si>
+  <si>
+    <t>gun</t>
+  </si>
+  <si>
+    <t>pinch</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>open_pose</t>
+  </si>
+  <si>
+    <t>relaxed_pose</t>
+  </si>
+  <si>
+    <t>straight_pose</t>
+  </si>
+  <si>
+    <t>spacious_pose</t>
+  </si>
+  <si>
+    <t>pose_change_rate</t>
+  </si>
+  <si>
+    <t>MBTI</t>
+  </si>
+  <si>
+    <t>User3</t>
+  </si>
+  <si>
+    <t>User3_pass</t>
+  </si>
+  <si>
+    <t>User4</t>
+  </si>
+  <si>
+    <t>User4_pass</t>
+  </si>
+  <si>
+    <t>_uNup91ZYw0.002.mp4</t>
+  </si>
+  <si>
+    <t>The short answer is that I really wanted to write this book because I absolutely love writing popular histories. I mean, I love the deep detailed histories, of course, this is my thing. I love being able to share these stories in a way that makes it really accessible and exciting for people that wouldn't</t>
+  </si>
+  <si>
+    <t>the short answer is that i really wanted to write this book because i absolutely love writing popular histories i mean , i love the deep detailed histories , of course , this is my thing i love being able to share these stories in a way that makes it really accessible and exciting for people that wouldn t</t>
+  </si>
+  <si>
+    <t>short answer really wanted write book absolutely love writing popular history mean , love deep detailed history , course , thing love able share story way make really accessible exciting people</t>
+  </si>
+  <si>
+    <t>ENFJ</t>
+  </si>
+  <si>
+    <t>1DCnIad1Y0w.002.mp4</t>
+  </si>
+  <si>
+    <t>You can do what you want to do in your own house. I am not going to judge you for that. I don't care what you do. You could watch anime. You could dress up. I don't care. But I would draw the line when people tend to waste a good portion of their lives ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you can do what you want to do in your own house i am not going to judge you for that i don t care what you do you could watch anime you could dress up i don t care but i would draw the line when people tend to waste a good portion of their lives </t>
+  </si>
+  <si>
+    <t>want house going judge care could watch anime could dress care would draw line people tend waste good portion life</t>
+  </si>
+  <si>
+    <t>ISTP</t>
+  </si>
+  <si>
+    <t>4CSV8L7aVik.000.mp4</t>
+  </si>
+  <si>
+    <t>Songs may be not available in your country. But [damn 00:00:04], you may also download my covers at [inaudible 00:00:06] for a sample. I really appreciate those of you who download my songs on iTunes or on my music-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">songs may be not available in your country but damn , you may also download my covers at inaudible for a sample i really appreciate those of you who download my songs on itunes or on my music - </t>
+  </si>
+  <si>
+    <t>song may available country damn , may also download cover inaudible sample really appreciate download song itunes music -</t>
+  </si>
+  <si>
+    <t>C:\Users\Maria Smirnova\Desktop\Проекты\межнар\it-hatters_hacks_ai_24\интерфейс_dash\assets\_uNup91ZYw0.002.mp4</t>
+  </si>
+  <si>
+    <t>C:\Users\Maria Smirnova\Desktop\Проекты\межнар\it-hatters_hacks_ai_24\интерфейс_dash\assets\1DCnIad1Y0w.002.mp4</t>
+  </si>
+  <si>
+    <t>C:\Users\Maria Smirnova\Desktop\Проекты\межнар\it-hatters_hacks_ai_24\интерфейс_dash\assets\4CSV8L7aVik.000.mp4</t>
   </si>
 </sst>
 </file>
@@ -369,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:BA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -380,7 +584,7 @@
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,8 +600,152 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -414,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -428,17 +776,483 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3">
+        <v>0.75700934579439205</v>
+      </c>
+      <c r="H3">
+        <v>0.88541666666666596</v>
+      </c>
+      <c r="I3">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="J3">
+        <v>0.76699029126213503</v>
+      </c>
+      <c r="K3">
+        <v>0.74766355140186902</v>
+      </c>
+      <c r="L3">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="M3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3">
+        <v>306</v>
+      </c>
+      <c r="Q3">
+        <v>305</v>
+      </c>
+      <c r="R3">
+        <v>43</v>
+      </c>
+      <c r="S3">
+        <v>15.32</v>
+      </c>
+      <c r="T3">
+        <v>-10.285231</v>
+      </c>
+      <c r="U3">
+        <v>16.939291000000001</v>
+      </c>
+      <c r="V3">
+        <v>2451.9808451302501</v>
+      </c>
+      <c r="W3">
+        <v>1614.4620483364799</v>
+      </c>
+      <c r="X3">
+        <v>4244.6674138849403</v>
+      </c>
+      <c r="Y3">
+        <v>2461.60368256009</v>
+      </c>
+      <c r="Z3">
+        <v>5.2493459999999999E-2</v>
+      </c>
+      <c r="AA3">
+        <v>3.9312835999999997E-2</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>10</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>5</v>
+      </c>
+      <c r="AK3">
+        <v>7</v>
+      </c>
+      <c r="AL3">
+        <v>6</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>4</v>
+      </c>
+      <c r="AV3">
+        <v>0.33002206217497498</v>
+      </c>
+      <c r="AW3">
+        <v>0.2</v>
+      </c>
+      <c r="AX3">
+        <v>0.97300688177347106</v>
+      </c>
+      <c r="AY3">
+        <v>0.81099041271954697</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4">
+        <v>0.14953271028037299</v>
+      </c>
+      <c r="H4">
+        <v>0.19791666666666599</v>
+      </c>
+      <c r="I4">
+        <v>0.36263736263736202</v>
+      </c>
+      <c r="J4">
+        <v>0.31067961165048502</v>
+      </c>
+      <c r="K4">
+        <v>0.15887850467289699</v>
+      </c>
+      <c r="L4">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="M4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4">
+        <v>247</v>
+      </c>
+      <c r="Q4">
+        <v>256</v>
+      </c>
+      <c r="R4">
+        <v>43</v>
+      </c>
+      <c r="S4">
+        <v>15.32</v>
+      </c>
+      <c r="T4">
+        <v>-9.6177060000000001</v>
+      </c>
+      <c r="U4">
+        <v>12.952724999999999</v>
+      </c>
+      <c r="V4">
+        <v>2525.1538918291899</v>
+      </c>
+      <c r="W4">
+        <v>1155.75209796882</v>
+      </c>
+      <c r="X4">
+        <v>4977.6772238991398</v>
+      </c>
+      <c r="Y4">
+        <v>2171.6257011458301</v>
+      </c>
+      <c r="Z4">
+        <v>3.914426E-2</v>
+      </c>
+      <c r="AA4">
+        <v>2.2184432E-2</v>
+      </c>
+      <c r="AB4">
+        <v>16</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>16</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0.75259307958185595</v>
+      </c>
+      <c r="AW4">
+        <v>0.2</v>
+      </c>
+      <c r="AX4">
+        <v>0.93094746023416497</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5">
+        <v>0.61682242990654201</v>
+      </c>
+      <c r="H5">
+        <v>0.4375</v>
+      </c>
+      <c r="I5">
+        <v>0.51648351648351598</v>
+      </c>
+      <c r="J5">
+        <v>0.51456310679611605</v>
+      </c>
+      <c r="K5">
+        <v>0.53271028037383095</v>
+      </c>
+      <c r="L5">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="M5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5">
+        <v>194</v>
+      </c>
+      <c r="Q5">
+        <v>215</v>
+      </c>
+      <c r="R5">
+        <v>33</v>
+      </c>
+      <c r="S5">
+        <v>15.32</v>
+      </c>
+      <c r="T5">
+        <v>-6.4937719999999999</v>
+      </c>
+      <c r="U5">
+        <v>9.3691809999999993</v>
+      </c>
+      <c r="V5">
+        <v>1981.3405746266999</v>
+      </c>
+      <c r="W5">
+        <v>682.76119700325899</v>
+      </c>
+      <c r="X5">
+        <v>3748.3597079190299</v>
+      </c>
+      <c r="Y5">
+        <v>1412.1294667331199</v>
+      </c>
+      <c r="Z5">
+        <v>9.2743519999999996E-2</v>
+      </c>
+      <c r="AA5">
+        <v>4.0728126000000003E-2</v>
+      </c>
+      <c r="AB5">
+        <v>10</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>3</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>12</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>0.2</v>
+      </c>
+      <c r="AX5">
+        <v>0.97604659199714605</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
     </row>
